--- a/스케줄.xlsx
+++ b/스케줄.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruha0\Downloads\기획서\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMEN\Desktop\혁진\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE607F5-5239-4677-A8FB-BD2831A48EC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39298A-E0B0-411F-87E9-C8E6430343E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{597B85AB-2A40-4494-8654-697D8E3D3CA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{597B85AB-2A40-4494-8654-697D8E3D3CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="계획표" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>동굴먼지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신혁진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,40 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주</t>
-  </si>
-  <si>
-    <t>4주</t>
-  </si>
-  <si>
-    <t>5주</t>
-  </si>
-  <si>
-    <t>6주</t>
-  </si>
-  <si>
-    <t>7주</t>
-  </si>
-  <si>
-    <t>8주</t>
-  </si>
-  <si>
-    <t>9주</t>
-  </si>
-  <si>
-    <t>10주</t>
-  </si>
-  <si>
-    <t>11주</t>
-  </si>
-  <si>
-    <t>12주</t>
-  </si>
-  <si>
     <t>시스템 프로그래밍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,19 +161,6 @@
   </si>
   <si>
     <t>카드 효과&amp;재해 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">주민들 능력치부여 &amp; 주민들 양산 (2주) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">플레임워크
-(설정창 + 메인화면 + 게임화면) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 장착 &amp; 주민 배치하고 턴 진행하면 상호작용
-[자원획득및 능력치 상승]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -227,31 +177,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>신앙 사용해서 카드 뽑기</t>
+  </si>
+  <si>
+    <t>카드 인벤토리</t>
+  </si>
+  <si>
+    <t>주민 영웅 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 셋째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 넷째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 첫째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 둘째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 셋째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 넷째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 첫째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 둘째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 셋째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 넷째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 첫째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 둘째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 셋째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 넷째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 첫째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 둘째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주민들 능력치부여
+ 주민들 양산 (2주) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프레임워크
+(설정창 + 메인화면 + 게임화면) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인쟝 해외 여행 ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴먼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치가능 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치 상승 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>주민 진화 조건 부여[1개]
+주민들 대사
  주민들 길따라 움직이게하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14주</t>
-  </si>
-  <si>
-    <t>15주</t>
-  </si>
-  <si>
-    <t>16주</t>
-  </si>
-  <si>
-    <t>신앙 사용해서 카드 뽑기</t>
-  </si>
-  <si>
-    <t>카드 인벤토리</t>
-  </si>
-  <si>
-    <t>장비 생산 &amp; 장비 장착</t>
+    <t>장비 생산 &amp; 
+장비 인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민 커스터마이징 랜덤
+&amp;이름 랜덤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -292,13 +358,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,15 +430,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,22 +791,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13602C2B-02C6-4071-AC34-0099EE37CD3B}">
-  <dimension ref="D2:J7"/>
+  <dimension ref="D2:Z36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:T17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
-    <col min="12" max="19" width="10.296875" customWidth="1"/>
-    <col min="20" max="20" width="8.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="12" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="16" width="16.125" customWidth="1"/>
+    <col min="17" max="17" width="14.625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="10.25" customWidth="1"/>
+    <col min="20" max="20" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,13 +820,37 @@
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="3" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -678,17 +860,23 @@
       <c r="F3" s="1">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -698,17 +886,23 @@
       <c r="F4" s="1">
         <v>40</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -718,17 +912,23 @@
       <c r="F5" s="1">
         <v>40</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
@@ -738,30 +938,317 @@
       <c r="F6" s="1">
         <v>40</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="H7" s="1" t="s">
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>50</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4">
+        <v>50</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4">
+        <v>60</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,204 +1260,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D384A8AF-77D8-47C6-B999-C74583319A14}">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.69921875" customWidth="1"/>
-    <col min="4" max="19" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="19" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="Q3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="Q4:R6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D3:G3"/>
+  <mergeCells count="9">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="O4:P6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/스케줄.xlsx
+++ b/스케줄.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMEN\Desktop\혁진\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39298A-E0B0-411F-87E9-C8E6430343E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DEE994-01BA-42BB-9D17-8E90B32D5228}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{597B85AB-2A40-4494-8654-697D8E3D3CA7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{597B85AB-2A40-4494-8654-697D8E3D3CA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="값" sheetId="2" r:id="rId1"/>
     <sheet name="계획표" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>동굴먼지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,42 +66,6 @@
   </si>
   <si>
     <t>10~30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10~25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 능력치 상승 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상승능력치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병참</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -285,29 +250,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소유 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배치효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배치가능 인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>능력치 상승 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주민 진화 조건 부여[1개]
-주민들 대사
- 주민들 길따라 움직이게하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,6 +265,185 @@
   <si>
     <t>주민 커스터마이징 랜덤
 &amp;이름 랜덤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리모양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더벅머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땋은머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단발머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양갈래머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포니테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파마머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바가지머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈모양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집</t>
+  </si>
+  <si>
+    <t>밭</t>
+  </si>
+  <si>
+    <t>병참</t>
+  </si>
+  <si>
+    <t>제단</t>
+  </si>
+  <si>
+    <t>광산</t>
+  </si>
+  <si>
+    <t>대장간</t>
+  </si>
+  <si>
+    <t>훈련소</t>
+  </si>
+  <si>
+    <t>텔레포트</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>등급</t>
+  </si>
+  <si>
+    <t>배치 효과</t>
+  </si>
+  <si>
+    <t>효과</t>
+  </si>
+  <si>
+    <t>하~상</t>
+  </si>
+  <si>
+    <t>인구 생산</t>
+  </si>
+  <si>
+    <t>최대 인구수 +2</t>
+  </si>
+  <si>
+    <t>체력 상승</t>
+  </si>
+  <si>
+    <t>식량 생산량 +1</t>
+  </si>
+  <si>
+    <t>방어력 상승</t>
+  </si>
+  <si>
+    <t>최대 병사 +2</t>
+  </si>
+  <si>
+    <t>중~상</t>
+  </si>
+  <si>
+    <t>마력 획득</t>
+  </si>
+  <si>
+    <t>마력 +1</t>
+  </si>
+  <si>
+    <t>생산력 상승</t>
+  </si>
+  <si>
+    <t>채굴가능</t>
+  </si>
+  <si>
+    <t>배치 불가</t>
+  </si>
+  <si>
+    <t>장비 생산 가능</t>
+  </si>
+  <si>
+    <t>상</t>
+  </si>
+  <si>
+    <t>공격력 상승</t>
+  </si>
+  <si>
+    <t>신규 직업 획득</t>
+  </si>
+  <si>
+    <t>주민들 이동가능</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>상승 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40~100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산력+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>층마다 카르마 수치 부여
+카르마 수치와 조건에 따라 층에 있는 모든 주민이 진화하도록(종족 하나)
+자원 시스템 구성( 메인화면 전반적인 UI 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,16 +467,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -410,22 +550,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,32 +588,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,6 +631,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13602C2B-02C6-4071-AC34-0099EE37CD3B}">
-  <dimension ref="D2:Z36"/>
+  <dimension ref="D1:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -802,15 +975,21 @@
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="12" max="14" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
     <col min="15" max="16" width="16.125" customWidth="1"/>
     <col min="17" max="17" width="14.625" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
     <col min="19" max="19" width="10.25" customWidth="1"/>
     <col min="20" max="20" width="8.75" customWidth="1"/>
+    <col min="21" max="21" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="4:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,63 +999,81 @@
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="H2" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="I2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="4:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="24">
+        <v>2</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="4:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,23 +1083,39 @@
       <c r="F4" s="1">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="H4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="24">
+        <v>2</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="25">
         <v>0.6</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="4:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -912,23 +1125,39 @@
       <c r="F5" s="1">
         <v>40</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="H5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="24">
+        <v>2</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="25">
         <v>0.5</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="11"/>
+      <c r="P5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="4:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,318 +1167,341 @@
       <c r="F6" s="1">
         <v>40</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="H6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="24">
+        <v>2</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="4:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="24">
+        <v>2</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="4:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="24">
+        <v>2</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="P8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>240</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="24">
+        <v>2</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="4:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>70</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="24">
+        <v>1</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="P10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="4:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="4:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="4:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="4:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>60</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="21" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="4" t="s">
+      <c r="E21" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E22" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="4" t="s">
+    <row r="30" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="4" t="s">
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4">
-        <v>50</v>
-      </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="4:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="4">
-        <v>50</v>
-      </c>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="4">
-        <v>60</v>
-      </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E36" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="4:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="4">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I2:K2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1271,200 +1523,200 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="5" t="s">
+    </row>
+    <row r="3" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P3" s="13"/>
-      <c r="Q3" s="5" t="s">
-        <v>30</v>
+      <c r="Q3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="2:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="O4:P6"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="O4:P6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
